--- a/vitor/resultados.xlsx
+++ b/vitor/resultados.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{411F68D8-94E0-45B3-8186-A3B387CC3718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E0174-6440-41CA-B815-01F1294801C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S4 CV" sheetId="1" r:id="rId1"/>
     <sheet name="S6 CV" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
   <si>
     <t>modelo</t>
   </si>
@@ -82,6 +81,195 @@
   </si>
   <si>
     <t>S6 OVERSAMPLED</t>
+  </si>
+  <si>
+    <t>precision 0</t>
+  </si>
+  <si>
+    <t>precision 1</t>
+  </si>
+  <si>
+    <t>94.74%</t>
+  </si>
+  <si>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>78.95%</t>
+  </si>
+  <si>
+    <t>6.11%</t>
+  </si>
+  <si>
+    <t>92.41%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>94.49%</t>
+  </si>
+  <si>
+    <t>21.74%</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>92.96%</t>
+  </si>
+  <si>
+    <t>92.62%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>93.38%</t>
+  </si>
+  <si>
+    <t>21.43%</t>
+  </si>
+  <si>
+    <t>89.73%</t>
+  </si>
+  <si>
+    <t>56.25%</t>
+  </si>
+  <si>
+    <t>86.71%</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>87.10%</t>
+  </si>
+  <si>
+    <t>57.14%</t>
+  </si>
+  <si>
+    <t>86.79%</t>
+  </si>
+  <si>
+    <t>86.25%</t>
+  </si>
+  <si>
+    <t>68.75%</t>
+  </si>
+  <si>
+    <t>10.77%</t>
+  </si>
+  <si>
+    <t>87.68%</t>
+  </si>
+  <si>
+    <t>29.17%</t>
+  </si>
+  <si>
+    <t>86.93%</t>
+  </si>
+  <si>
+    <t>44.44%</t>
+  </si>
+  <si>
+    <t>90.00%</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>94.66%</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>92.57%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>92.36%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>93.02%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>91.30%</t>
+  </si>
+  <si>
+    <t>92.52%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>92.24%</t>
+  </si>
+  <si>
+    <t>8.82%</t>
+  </si>
+  <si>
+    <t>89.86%</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>86.36%</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>90.28%</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>87.34%</t>
+  </si>
+  <si>
+    <t>86.54%</t>
+  </si>
+  <si>
+    <t>93.58%</t>
+  </si>
+  <si>
+    <t>32.08%</t>
+  </si>
+  <si>
+    <t>85.71%</t>
+  </si>
+  <si>
+    <t>95.71%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>29.79%</t>
+  </si>
+  <si>
+    <t>89.60%</t>
+  </si>
+  <si>
+    <t>29.30%</t>
   </si>
 </sst>
 </file>
@@ -126,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -251,49 +439,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,33 +786,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -613,9 +827,15 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -625,187 +845,259 @@
       <c r="C6" s="3">
         <v>0.91300000000000003</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.41670000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.879</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.94930000000000003</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>0.92669999999999997</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="E9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>0.82669999999999999</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>0.86960000000000004</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>0.33329999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="E10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>0.82669999999999999</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>0.86960000000000004</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>0.33329999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="E11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="13">
         <v>0.90669999999999995</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <v>0.97829999999999995</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="13">
         <v>8.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="E13" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.92</v>
       </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="E15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>0.92</v>
       </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="E16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>0.92</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="E17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="15">
         <v>0.82669999999999999</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="15">
         <v>0.86960000000000004</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="15">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0.80669999999999997</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>0.85509999999999997</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="E19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="13">
         <v>0.92</v>
       </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="E21" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -818,42 +1110,60 @@
       <c r="D26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="17">
         <v>0.84009999999999996</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="17">
         <v>0.91300000000000003</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="17">
         <v>0.41670000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="E28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="11">
         <v>0.86509999999999998</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="11">
         <v>0.94930000000000003</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="11">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -863,55 +1173,80 @@
       <c r="C31" s="3">
         <v>0.99280000000000002</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="E31" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>0.86470000000000002</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
         <v>8.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="E32" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="21">
         <v>0.22239999999999999</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="21">
         <v>0.15939999999999999</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="21">
         <v>0.58330000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="E33" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="42"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="13">
         <v>0.85850000000000004</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="13">
         <v>0.97829999999999995</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="13">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
@@ -921,80 +1256,115 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="E37" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>0.87060000000000004</v>
       </c>
-      <c r="C38" s="12">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="E38" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>0.871</v>
       </c>
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="E39" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="19">
         <v>0.79190000000000005</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="19">
         <v>0.87680000000000002</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="19">
         <v>0.29170000000000001</v>
       </c>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="E40" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>0.84670000000000001</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>0.96379999999999999</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="E41" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="13">
         <v>0.86470000000000002</v>
       </c>
-      <c r="C43" s="18">
-        <v>1</v>
-      </c>
-      <c r="D43" s="19">
+      <c r="C43" s="13">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
         <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1011,31 +1381,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7989ECD-DC8B-4687-B675-64D9177612F4}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1048,9 +1420,15 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1060,199 +1438,271 @@
       <c r="C6" s="3">
         <v>0.89859999999999995</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.41670000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="E6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="21">
         <v>0.70899999999999996</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="21">
         <v>0.76090000000000002</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="E7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="17">
         <v>0.9133</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="17">
         <v>0.98550000000000004</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="17">
         <v>8.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="E9" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="15">
         <v>0.92</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="15">
         <v>0.99280000000000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="15">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="E10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="21">
         <v>0.08</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="21">
         <v>0</v>
       </c>
-      <c r="D11" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="13">
         <v>0.89329999999999998</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <v>0.96379999999999999</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="41">
         <v>8.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25">
+      <c r="E13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17">
         <v>0.92</v>
       </c>
-      <c r="C15" s="25">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="E15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="19">
         <v>0.92</v>
       </c>
-      <c r="C16" s="28">
-        <v>1</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="E16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="19">
         <v>0.92</v>
       </c>
-      <c r="C17" s="28">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="E17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="19">
         <v>0.73329999999999995</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="19">
         <v>0.77539999999999998</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="E18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>0.82</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>0.86960000000000004</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="E19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="13">
         <v>0.92</v>
       </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="E21" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1265,9 +1715,15 @@
       <c r="D26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1277,32 +1733,43 @@
       <c r="C28" s="3">
         <v>0.89859999999999995</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>0.41670000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="E28" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="21">
         <v>0.73419999999999996</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="21">
         <v>0.73909999999999998</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="21">
         <v>0.70830000000000004</v>
       </c>
-      <c r="E29" s="33"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1312,152 +1779,212 @@
       <c r="C31" s="3">
         <v>0.96379999999999999</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="E31" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="19">
         <v>0.82789999999999997</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="19">
         <v>0.95650000000000002</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="19">
         <v>8.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="E32" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="21">
         <v>0.5423</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="21">
         <v>0.48549999999999999</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="21">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="E33" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="13">
         <v>0.86399999999999999</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="13">
         <v>0.94199999999999995</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="13">
         <v>0.41670000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="25">
+      <c r="E35" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17">
         <v>0.871</v>
       </c>
-      <c r="C37" s="25">
-        <v>1</v>
-      </c>
-      <c r="D37" s="26">
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="E37" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="15">
         <v>0.87680000000000002</v>
       </c>
-      <c r="C38" s="21">
-        <v>1</v>
-      </c>
-      <c r="D38" s="22">
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="E38" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="19">
         <v>0.871</v>
       </c>
-      <c r="C39" s="28">
-        <v>1</v>
-      </c>
-      <c r="D39" s="29">
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="19">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="E39" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="19">
         <v>0.73529999999999995</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="19">
         <v>0.76090000000000002</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="19">
         <v>0.58330000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="E40" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="21">
         <v>0.76029999999999998</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="21">
         <v>0.81159999999999999</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="21">
         <v>0.45829999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="E41" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="13">
         <v>0.85219999999999996</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="13">
         <v>0.97829999999999995</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="13">
         <v>0.125</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
